--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3705495.065891616</v>
+        <v>-3706207.670365658</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147699</v>
+        <v>169821.4284147701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>134.2916202670101</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.4425103176721</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.5395050189793</v>
+        <v>62.66716559384194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718773</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550873</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065508</v>
+        <v>44.134761160655</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673106</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810642</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>35.64309645169764</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>46.37814801728334</v>
+        <v>13.25780256851662</v>
       </c>
       <c r="T12" t="n">
-        <v>188.5623770505816</v>
+        <v>36.64054962134801</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437498</v>
+        <v>58.89840834437489</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084697</v>
       </c>
       <c r="W12" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245631</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491533</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947034</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650166</v>
+        <v>25.09353465650158</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412739</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605254</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989463</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368725</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961314</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>110.3148497428101</v>
+      </c>
+      <c r="F14" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="F14" t="n">
-        <v>105.4201918183093</v>
-      </c>
       <c r="G14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384189</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718773</v>
+        <v>16.5307887271876</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.17968824550859</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065507</v>
+        <v>44.13476116065494</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.82086528673091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810728</v>
+        <v>9.188502199810586</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R15" t="n">
-        <v>31.26340340229921</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.2578025685167</v>
+        <v>174.1851746770233</v>
       </c>
       <c r="T15" t="n">
-        <v>36.6405496213481</v>
+        <v>36.64054962134796</v>
       </c>
       <c r="U15" t="n">
-        <v>188.5623770505816</v>
+        <v>58.89840834437484</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084705</v>
+        <v>62.31927159084691</v>
       </c>
       <c r="W15" t="n">
-        <v>88.3749342524564</v>
+        <v>88.37493425245626</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491541</v>
+        <v>38.98326511491527</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947042</v>
+        <v>45.05463680947028</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650166</v>
+        <v>25.09353465650152</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412747</v>
+        <v>57.10576830412733</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605263</v>
+        <v>45.43126511605249</v>
       </c>
       <c r="U16" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989471</v>
+        <v>66.77936585989457</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368734</v>
+        <v>43.58980608368719</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961323</v>
+        <v>38.81162348961308</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>105.7746578479523</v>
       </c>
       <c r="G17" t="n">
-        <v>121.4132451535438</v>
+        <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558193927</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>122.4855832344312</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.7516171371431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.58488881655615</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>11.89036458891801</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194019</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>136.5199885090824</v>
       </c>
       <c r="U24" t="n">
         <v>188.5623770505816</v>
@@ -2457,10 +2457,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="W24" t="n">
-        <v>106.7810505784292</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>124.3051829741945</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0119353936034</v>
+        <v>158.0119353936033</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719806</v>
       </c>
       <c r="G26" t="n">
         <v>205.370860277572</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5509807059686</v>
+        <v>133.5509807059685</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52983825036441</v>
+        <v>27.52983825036438</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203112</v>
+        <v>14.0423609020311</v>
       </c>
       <c r="T26" t="n">
-        <v>8.997433817177475</v>
+        <v>8.997433817177448</v>
       </c>
       <c r="U26" t="n">
-        <v>36.68353794325345</v>
+        <v>36.68353794325341</v>
       </c>
       <c r="V26" t="n">
         <v>107.4128069411192</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>64.11379538686828</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R27" t="n">
-        <v>46.68903377141365</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870491</v>
+        <v>1.503222277870464</v>
       </c>
       <c r="U27" t="n">
-        <v>23.76108100089737</v>
+        <v>23.76108100089734</v>
       </c>
       <c r="V27" t="n">
-        <v>27.18194424736944</v>
+        <v>27.18194424736942</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.845937771437804</v>
+        <v>3.845937771437775</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992815</v>
+        <v>9.917309465992787</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96844096064986</v>
+        <v>21.96844096064984</v>
       </c>
       <c r="T28" t="n">
-        <v>10.29393777257502</v>
+        <v>10.29393777257499</v>
       </c>
       <c r="U28" t="n">
-        <v>75.18957207913219</v>
+        <v>75.18957207913216</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6420385164171</v>
+        <v>31.64203851641707</v>
       </c>
       <c r="W28" t="n">
-        <v>76.84373042130252</v>
+        <v>76.8437304213025</v>
       </c>
       <c r="X28" t="n">
-        <v>8.452478740209727</v>
+        <v>8.452478740209699</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.674296146135617</v>
+        <v>3.674296146135589</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203115</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177503</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U29" t="n">
         <v>36.68353794325347</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>24.80950899645263</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>116.1695288149241</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280576689302</v>
+        <v>23.7610810008974</v>
       </c>
       <c r="V30" t="n">
         <v>27.18194424736947</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
         <v>3.845937771437832</v>
@@ -3035,7 +3035,7 @@
         <v>124.3051829741946</v>
       </c>
       <c r="E32" t="n">
-        <v>158.0119353936035</v>
+        <v>158.0119353936034</v>
       </c>
       <c r="F32" t="n">
         <v>189.7322729719808</v>
@@ -3044,10 +3044,10 @@
         <v>205.3708602775721</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5509807059687</v>
+        <v>133.5509807059686</v>
       </c>
       <c r="I32" t="n">
-        <v>27.52983825036452</v>
+        <v>27.52983825036449</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203125</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T32" t="n">
-        <v>8.99743381717758</v>
+        <v>8.997433817177551</v>
       </c>
       <c r="U32" t="n">
-        <v>36.68353794325355</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V32" t="n">
         <v>107.4128069411193</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>74.18124803004054</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>79.10417058790662</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870605</v>
+        <v>1.503222277870577</v>
       </c>
       <c r="U33" t="n">
-        <v>23.76108100089748</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V33" t="n">
-        <v>27.18194424736956</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.2376069089789</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437917</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064997</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T34" t="n">
-        <v>10.29393777257513</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U34" t="n">
-        <v>75.1895720791323</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V34" t="n">
-        <v>31.64203851641722</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W34" t="n">
-        <v>76.84373042130264</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X34" t="n">
-        <v>8.452478740209841</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.674296146135731</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G35" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H35" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2258905735926</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>212.6829726134776</v>
       </c>
       <c r="X36" t="n">
-        <v>195.8293452317797</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>102.027563532976</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632148</v>
+        <v>78.14582053632154</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279736994</v>
+        <v>65.71248279737</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677882</v>
+        <v>99.41923521677887</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951561</v>
+        <v>131.1395727951562</v>
       </c>
       <c r="G38" t="n">
         <v>146.7781601007475</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914402</v>
+        <v>74.95828052914408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429468</v>
+        <v>48.82010676429474</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090955</v>
+        <v>65.83678698090961</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984879</v>
+        <v>87.72303744984885</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2258905735926</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -3591,7 +3591,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668481</v>
+        <v>2.137924840068619</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>65.67665828419231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59687190230765</v>
+        <v>16.5968719023077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447799</v>
+        <v>18.25103024447805</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889035</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075481</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>5.283080164189197</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>252.2028439023605</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889035</v>
       </c>
       <c r="V44" t="n">
         <v>79.88296869075481</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4065,7 +4065,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>145.6615593544699</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.96888962557786</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>25.70776865861438</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.2813461107465</v>
+        <v>268.8522049563935</v>
       </c>
       <c r="C11" t="n">
-        <v>380.2813461107465</v>
+        <v>268.8522049563935</v>
       </c>
       <c r="D11" t="n">
-        <v>219.2283053858253</v>
+        <v>268.8522049563935</v>
       </c>
       <c r="E11" t="n">
-        <v>219.2283053858253</v>
+        <v>78.38515743055353</v>
       </c>
       <c r="F11" t="n">
-        <v>219.2283053858253</v>
+        <v>78.38515743055353</v>
       </c>
       <c r="G11" t="n">
-        <v>28.76125785998522</v>
+        <v>78.38515743055353</v>
       </c>
       <c r="H11" t="n">
-        <v>28.76125785998522</v>
+        <v>78.38515743055353</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567086</v>
+        <v>115.6457740567087</v>
       </c>
       <c r="K11" t="n">
-        <v>115.6457740567086</v>
+        <v>165.43469632454</v>
       </c>
       <c r="L11" t="n">
-        <v>162.4191122870027</v>
+        <v>212.208034554834</v>
       </c>
       <c r="M11" t="n">
-        <v>243.3394230101545</v>
+        <v>293.1283452779858</v>
       </c>
       <c r="N11" t="n">
-        <v>318.7266729433927</v>
+        <v>479.8050985580616</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602036</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4818518381376</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="Q11" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R11" t="n">
-        <v>737.5517418112278</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S11" t="n">
-        <v>687.8752890379866</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T11" t="n">
-        <v>643.2947222090421</v>
+        <v>709.6689413733818</v>
       </c>
       <c r="U11" t="n">
-        <v>570.7483936365866</v>
+        <v>709.6689413733818</v>
       </c>
       <c r="V11" t="n">
-        <v>570.7483936365866</v>
+        <v>565.678906742476</v>
       </c>
       <c r="W11" t="n">
-        <v>570.7483936365866</v>
+        <v>404.5003062362017</v>
       </c>
       <c r="X11" t="n">
-        <v>570.7483936365866</v>
+        <v>404.5003062362017</v>
       </c>
       <c r="Y11" t="n">
-        <v>380.2813461107465</v>
+        <v>404.5003062362017</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.35437081744588</v>
+        <v>221.79913529297</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410171</v>
+        <v>212.517819939626</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410171</v>
+        <v>212.517819939626</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410171</v>
+        <v>212.517819939626</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410171</v>
+        <v>212.517819939626</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410171</v>
+        <v>212.517819939626</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410171</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N12" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O12" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P12" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R12" t="n">
-        <v>611.264513423435</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S12" t="n">
-        <v>564.4178992645629</v>
+        <v>733.9421253243615</v>
       </c>
       <c r="T12" t="n">
-        <v>373.950851738723</v>
+        <v>696.9314691411818</v>
       </c>
       <c r="U12" t="n">
-        <v>314.457509976728</v>
+        <v>637.4381273791869</v>
       </c>
       <c r="V12" t="n">
-        <v>251.5087507940542</v>
+        <v>574.4893681965132</v>
       </c>
       <c r="W12" t="n">
-        <v>162.2411404380376</v>
+        <v>485.2217578404967</v>
       </c>
       <c r="X12" t="n">
-        <v>122.8641049684261</v>
+        <v>445.8447223708853</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.35437081744588</v>
+        <v>400.3349882199051</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.08499016404653</v>
+        <v>15.79059153703784</v>
       </c>
       <c r="C13" t="n">
-        <v>15.08499016404653</v>
+        <v>27.54433520609494</v>
       </c>
       <c r="D13" t="n">
-        <v>15.08499016404653</v>
+        <v>60.35986428920106</v>
       </c>
       <c r="E13" t="n">
-        <v>15.08499016404653</v>
+        <v>96.64683732040804</v>
       </c>
       <c r="F13" t="n">
-        <v>15.08499016404653</v>
+        <v>135.6555767554556</v>
       </c>
       <c r="G13" t="n">
-        <v>15.08499016404653</v>
+        <v>145.1883116273056</v>
       </c>
       <c r="H13" t="n">
-        <v>15.08499016404653</v>
+        <v>157.5698374679133</v>
       </c>
       <c r="I13" t="n">
-        <v>15.08499016404653</v>
+        <v>157.5698374679133</v>
       </c>
       <c r="J13" t="n">
-        <v>15.08499016404653</v>
+        <v>215.089528534525</v>
       </c>
       <c r="K13" t="n">
-        <v>15.08499016404653</v>
+        <v>215.089528534525</v>
       </c>
       <c r="L13" t="n">
-        <v>159.8232296193045</v>
+        <v>308.417656902281</v>
       </c>
       <c r="M13" t="n">
-        <v>311.4282763715049</v>
+        <v>308.417656902281</v>
       </c>
       <c r="N13" t="n">
-        <v>468.6318884260462</v>
+        <v>468.6318884260455</v>
       </c>
       <c r="O13" t="n">
-        <v>468.6318884260462</v>
+        <v>468.6318884260455</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260462</v>
+        <v>468.6318884260455</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612853</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577483</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111554</v>
+        <v>436.216321211155</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272635</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791729</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701884</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980468</v>
+        <v>98.3187574098045</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456494</v>
+        <v>54.28865025456486</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>502.5041274564431</v>
+        <v>380.2813461107471</v>
       </c>
       <c r="C14" t="n">
-        <v>502.5041274564431</v>
+        <v>380.2813461107471</v>
       </c>
       <c r="D14" t="n">
-        <v>502.5041274564431</v>
+        <v>380.2813461107471</v>
       </c>
       <c r="E14" t="n">
-        <v>312.0370799306031</v>
+        <v>268.8522049563935</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5520376898866</v>
+        <v>78.38515743055349</v>
       </c>
       <c r="G14" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055349</v>
       </c>
       <c r="H14" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055349</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567086</v>
+        <v>115.6457740567088</v>
       </c>
       <c r="K14" t="n">
-        <v>115.6457740567086</v>
+        <v>285.5745218649281</v>
       </c>
       <c r="L14" t="n">
-        <v>162.4191122870027</v>
+        <v>332.3478600952221</v>
       </c>
       <c r="M14" t="n">
-        <v>293.128345277986</v>
+        <v>519.0246133752978</v>
       </c>
       <c r="N14" t="n">
-        <v>479.8050985580618</v>
+        <v>594.4118633085359</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4818518381376</v>
+        <v>628.6885469419655</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4818518381376</v>
+        <v>666.4818518381373</v>
       </c>
       <c r="Q14" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
         <v>737.5517418112277</v>
       </c>
       <c r="S14" t="n">
-        <v>737.5517418112277</v>
+        <v>687.8752890379866</v>
       </c>
       <c r="T14" t="n">
-        <v>692.9711749822832</v>
+        <v>643.2947222090422</v>
       </c>
       <c r="U14" t="n">
-        <v>692.9711749822832</v>
+        <v>570.748393636587</v>
       </c>
       <c r="V14" t="n">
-        <v>692.9711749822832</v>
+        <v>570.748393636587</v>
       </c>
       <c r="W14" t="n">
-        <v>692.9711749822832</v>
+        <v>570.748393636587</v>
       </c>
       <c r="X14" t="n">
-        <v>692.9711749822832</v>
+        <v>570.748393636587</v>
       </c>
       <c r="Y14" t="n">
-        <v>502.5041274564431</v>
+        <v>570.748393636587</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>237.7820871002018</v>
+        <v>237.7820871002017</v>
       </c>
       <c r="C15" t="n">
-        <v>228.5007717468576</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="D15" t="n">
-        <v>228.5007717468576</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="E15" t="n">
-        <v>228.5007717468576</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="F15" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="G15" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H15" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635112</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M15" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N15" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O15" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P15" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R15" t="n">
-        <v>715.7546497346824</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S15" t="n">
-        <v>702.3629299685039</v>
+        <v>571.3892242046578</v>
       </c>
       <c r="T15" t="n">
-        <v>665.352273785324</v>
+        <v>534.378568021478</v>
       </c>
       <c r="U15" t="n">
-        <v>474.8852262594839</v>
+        <v>474.8852262594832</v>
       </c>
       <c r="V15" t="n">
-        <v>411.9364670768102</v>
+        <v>411.9364670768095</v>
       </c>
       <c r="W15" t="n">
-        <v>322.6688567207936</v>
+        <v>322.6688567207931</v>
       </c>
       <c r="X15" t="n">
-        <v>283.2918212511821</v>
+        <v>283.2918212511818</v>
       </c>
       <c r="Y15" t="n">
-        <v>237.7820871002018</v>
+        <v>237.7820871002017</v>
       </c>
     </row>
     <row r="16">
@@ -5422,61 +5422,61 @@
         <v>15.08499016404653</v>
       </c>
       <c r="F16" t="n">
-        <v>15.08499016404653</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="G16" t="n">
-        <v>15.08499016404653</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="H16" t="n">
-        <v>15.08499016404653</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="I16" t="n">
-        <v>15.08499016404653</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="J16" t="n">
-        <v>72.60468123065814</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="K16" t="n">
-        <v>182.8086901916558</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="L16" t="n">
-        <v>327.5469296469138</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="M16" t="n">
-        <v>479.1519763991142</v>
+        <v>54.09372959909412</v>
       </c>
       <c r="N16" t="n">
-        <v>479.1519763991142</v>
+        <v>210.49795219711</v>
       </c>
       <c r="O16" t="n">
-        <v>479.1519763991142</v>
+        <v>349.9613012161978</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612859</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612859</v>
+        <v>519.2459201612847</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577488</v>
+        <v>493.8989154577479</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111554</v>
+        <v>436.2163212111546</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272639</v>
+        <v>390.3261544272632</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791732</v>
+        <v>278.8848418791727</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701882</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980468</v>
+        <v>98.31875740980439</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456494</v>
+        <v>54.2886502545648</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340406</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844274</v>
+        <v>410.2194918844268</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372138</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019087</v>
+        <v>187.8189404019084</v>
       </c>
       <c r="G17" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267205</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J17" t="n">
-        <v>38.44864261669532</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K17" t="n">
-        <v>38.44864261669532</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="L17" t="n">
-        <v>85.22198084698935</v>
+        <v>364.4638578568935</v>
       </c>
       <c r="M17" t="n">
-        <v>166.1422915701412</v>
+        <v>445.3841685800452</v>
       </c>
       <c r="N17" t="n">
-        <v>241.5295415033793</v>
+        <v>520.7714185132834</v>
       </c>
       <c r="O17" t="n">
-        <v>275.806225136809</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="P17" t="n">
-        <v>275.806225136809</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168847</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="R17" t="n">
-        <v>564.0214906197998</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="S17" t="n">
-        <v>633.237592299577</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933594</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U17" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059204</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075479</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>492.2812071765919</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="C18" t="n">
-        <v>302.8689329095556</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="D18" t="n">
-        <v>142.0888166705873</v>
+        <v>326.7615858365562</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0888166705873</v>
+        <v>326.7615858365562</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0888166705873</v>
+        <v>326.7615858365562</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0888166705873</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="H18" t="n">
-        <v>15.08499016404653</v>
+        <v>176.5146922106384</v>
       </c>
       <c r="I18" t="n">
-        <v>15.08499016404653</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J18" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635133</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681697</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N18" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O18" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P18" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R18" t="n">
-        <v>747.3338450905402</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S18" t="n">
-        <v>747.3338450905402</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="T18" t="n">
-        <v>747.3338450905402</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="U18" t="n">
-        <v>747.3338450905402</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="V18" t="n">
-        <v>747.3338450905402</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="W18" t="n">
-        <v>747.3338450905402</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="X18" t="n">
-        <v>747.3338450905402</v>
+        <v>487.5417020755244</v>
       </c>
       <c r="Y18" t="n">
-        <v>670.817060103527</v>
+        <v>487.5417020755244</v>
       </c>
     </row>
     <row r="19">
@@ -5732,61 +5732,61 @@
         <v>410.2194918844273</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438554</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E20" t="n">
-        <v>294.662029137214</v>
+        <v>294.6620291372135</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019086</v>
+        <v>187.8189404019081</v>
       </c>
       <c r="G20" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897384</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490496</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793437</v>
+        <v>117.7218274992678</v>
       </c>
       <c r="M20" t="n">
-        <v>385.3188915024955</v>
+        <v>198.6421382224196</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357337</v>
+        <v>274.0293881556577</v>
       </c>
       <c r="O20" t="n">
-        <v>494.9828250691633</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="P20" t="n">
-        <v>536.6935579106671</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="Q20" t="n">
-        <v>536.6935579106671</v>
+        <v>462.4829784168845</v>
       </c>
       <c r="R20" t="n">
-        <v>638.2320701135822</v>
+        <v>564.0214906197996</v>
       </c>
       <c r="S20" t="n">
-        <v>707.4481717933594</v>
+        <v>633.2375922995768</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933594</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557701</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338451</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.3338450905402</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="C21" t="n">
-        <v>557.9215708235039</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="D21" t="n">
-        <v>397.1414545845356</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="E21" t="n">
-        <v>223.5782507059501</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="F21" t="n">
-        <v>63.15053442319416</v>
+        <v>218.3199490900195</v>
       </c>
       <c r="G21" t="n">
-        <v>63.15053442319416</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H21" t="n">
-        <v>63.15053442319416</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I21" t="n">
-        <v>63.15053442319416</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J21" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P21" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R21" t="n">
-        <v>747.3338450905402</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S21" t="n">
-        <v>747.3338450905402</v>
+        <v>420.7974658975948</v>
       </c>
       <c r="T21" t="n">
-        <v>747.3338450905402</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="U21" t="n">
-        <v>747.3338450905402</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="V21" t="n">
-        <v>747.3338450905402</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="W21" t="n">
-        <v>747.3338450905402</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="X21" t="n">
-        <v>747.3338450905402</v>
+        <v>230.3304183717548</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.3338450905402</v>
+        <v>218.3199490900195</v>
       </c>
     </row>
     <row r="22">
@@ -5984,28 +5984,28 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J23" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="K23" t="n">
-        <v>38.44864261669555</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="L23" t="n">
-        <v>85.22198084698958</v>
+        <v>117.7218274992678</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1422915701414</v>
+        <v>198.6421382224196</v>
       </c>
       <c r="N23" t="n">
-        <v>241.5295415033796</v>
+        <v>274.0293881556577</v>
       </c>
       <c r="O23" t="n">
-        <v>275.8062251368092</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="P23" t="n">
-        <v>275.8062251368092</v>
+        <v>308.3060717890874</v>
       </c>
       <c r="Q23" t="n">
         <v>462.482978416885</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="C24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="D24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="E24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="F24" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="G24" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="H24" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="I24" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J24" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L24" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287436</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110305</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023265</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R24" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S24" t="n">
-        <v>747.3338450905402</v>
+        <v>747.33384509054</v>
       </c>
       <c r="T24" t="n">
-        <v>747.3338450905402</v>
+        <v>609.4348667985375</v>
       </c>
       <c r="U24" t="n">
-        <v>556.8667975647002</v>
+        <v>418.9678192726976</v>
       </c>
       <c r="V24" t="n">
-        <v>366.3997500388601</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="W24" t="n">
-        <v>258.5401029899417</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="X24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.07305546410171</v>
+        <v>228.5007717468577</v>
       </c>
     </row>
     <row r="25">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792743</v>
+        <v>882.8924400792729</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962495</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471552</v>
+        <v>597.723633647154</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693969</v>
+        <v>406.0748730693957</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577081</v>
+        <v>198.6295596577068</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662877</v>
+        <v>63.72957914662732</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847211</v>
+        <v>171.2683996847218</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629832</v>
+        <v>375.9831015629838</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946298</v>
+        <v>634.0887466946292</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191334</v>
       </c>
       <c r="N26" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.669911688507</v>
+        <v>1458.669911688506</v>
       </c>
       <c r="P26" t="n">
         <v>1655.109002436483</v>
@@ -6251,25 +6251,25 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169496</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182448</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.756487451889</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998504</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.4848656006024</v>
+        <v>314.0988527865131</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4848656006024</v>
+        <v>314.0988527865131</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4848656006024</v>
+        <v>314.0988527865131</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201685</v>
+        <v>314.0988527865131</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201685</v>
+        <v>153.6711365037572</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201685</v>
+        <v>88.90972702207203</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201685</v>
+        <v>88.90972702207203</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201685</v>
+        <v>88.90972702207203</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432154</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2852937261399</v>
+        <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N27" t="n">
-        <v>577.9583061004878</v>
+        <v>577.9583061004877</v>
       </c>
       <c r="O27" t="n">
-        <v>709.7015933827747</v>
+        <v>709.7015933827746</v>
       </c>
       <c r="P27" t="n">
-        <v>793.3606943740707</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622844</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R27" t="n">
-        <v>739.2843910891393</v>
+        <v>650.3756995951791</v>
       </c>
       <c r="S27" t="n">
-        <v>545.7617124092686</v>
+        <v>650.3756995951791</v>
       </c>
       <c r="T27" t="n">
-        <v>544.2433060679853</v>
+        <v>648.8572932538958</v>
       </c>
       <c r="U27" t="n">
-        <v>520.2422141478869</v>
+        <v>624.8562013337975</v>
       </c>
       <c r="V27" t="n">
-        <v>492.7857048071097</v>
+        <v>597.3996919930203</v>
       </c>
       <c r="W27" t="n">
-        <v>223.387135537401</v>
+        <v>328.0011227233116</v>
       </c>
       <c r="X27" t="n">
-        <v>219.502349909686</v>
+        <v>324.1163370955967</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.4848656006024</v>
+        <v>314.0988527865131</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201685</v>
+        <v>71.41321716505092</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201685</v>
+        <v>117.9529149041508</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201685</v>
+        <v>185.5543980572997</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201685</v>
+        <v>256.6273251585495</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="M28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="N28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="O28" t="n">
-        <v>35.92166172201685</v>
+        <v>266.289838122443</v>
       </c>
       <c r="P28" t="n">
-        <v>189.3782030019066</v>
+        <v>266.289838122443</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.2898381224432</v>
+        <v>266.289838122443</v>
       </c>
       <c r="R28" t="n">
-        <v>266.2898381224432</v>
+        <v>266.289838122443</v>
       </c>
       <c r="S28" t="n">
-        <v>244.0994937177464</v>
+        <v>244.0994937177462</v>
       </c>
       <c r="T28" t="n">
-        <v>233.7015767757514</v>
+        <v>233.7015767757512</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7525140695572</v>
+        <v>157.7525140695571</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7908590024692</v>
+        <v>125.7908590024691</v>
       </c>
       <c r="W28" t="n">
-        <v>48.17092928398185</v>
+        <v>48.17092928398178</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063869</v>
+        <v>39.63307197063865</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.012157971341</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792743</v>
+        <v>882.8924400792729</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962495</v>
+        <v>757.3316491962481</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471551</v>
+        <v>597.7236336471537</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693967</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577078</v>
+        <v>198.6295596577066</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662738</v>
+        <v>63.7295791466272</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847218</v>
+        <v>171.2683996847211</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629832</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946302</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N29" t="n">
-        <v>1213.060921153725</v>
+        <v>1213.060921153724</v>
       </c>
       <c r="O29" t="n">
         <v>1458.669911688507</v>
       </c>
       <c r="P29" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.662612870715</v>
@@ -6506,7 +6506,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.5449756980293</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="C30" t="n">
-        <v>234.5449756980293</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="D30" t="n">
-        <v>209.4848656006024</v>
+        <v>369.9125818833583</v>
       </c>
       <c r="E30" t="n">
-        <v>35.92166172201684</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F30" t="n">
         <v>35.92166172201684</v>
@@ -6543,49 +6543,49 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432154</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261399</v>
+        <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N30" t="n">
-        <v>577.9583061004878</v>
+        <v>577.9583061004877</v>
       </c>
       <c r="O30" t="n">
-        <v>709.7015933827747</v>
+        <v>709.7015933827746</v>
       </c>
       <c r="P30" t="n">
-        <v>793.3606943740707</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622844</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R30" t="n">
-        <v>786.4450312622844</v>
+        <v>669.1020728633711</v>
       </c>
       <c r="S30" t="n">
-        <v>786.4450312622844</v>
+        <v>669.1020728633711</v>
       </c>
       <c r="T30" t="n">
-        <v>784.926624921001</v>
+        <v>667.5836665220877</v>
       </c>
       <c r="U30" t="n">
-        <v>545.3023242453139</v>
+        <v>643.5825746019893</v>
       </c>
       <c r="V30" t="n">
-        <v>517.8458149045366</v>
+        <v>616.126065261212</v>
       </c>
       <c r="W30" t="n">
-        <v>248.4472456348279</v>
+        <v>562.350704747092</v>
       </c>
       <c r="X30" t="n">
-        <v>244.5624600071129</v>
+        <v>558.465919119377</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.5449756980293</v>
+        <v>548.4484348102933</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201684</v>
+        <v>71.41321716505087</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201684</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201684</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201684</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="F31" t="n">
-        <v>35.92166172201684</v>
+        <v>117.9529149041507</v>
       </c>
       <c r="G31" t="n">
-        <v>35.92166172201684</v>
+        <v>162.2716038460434</v>
       </c>
       <c r="H31" t="n">
-        <v>35.92166172201684</v>
+        <v>209.4390837566939</v>
       </c>
       <c r="I31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="K31" t="n">
-        <v>35.92166172201684</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="L31" t="n">
-        <v>215.4458552473176</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224434</v>
+        <v>256.3464833623372</v>
       </c>
       <c r="R31" t="n">
         <v>266.2898381224434</v>
@@ -6658,10 +6658,10 @@
         <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.1709292839819</v>
+        <v>48.17092928398189</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063871</v>
+        <v>39.6330719706387</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201684</v>
@@ -6677,22 +6677,22 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792729</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962485</v>
+        <v>757.331649196248</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471541</v>
+        <v>597.7236336471536</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693957</v>
+        <v>406.0748730693953</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577069</v>
+        <v>198.6295596577067</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662747</v>
+        <v>63.72957914662744</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201684</v>
@@ -6704,10 +6704,10 @@
         <v>375.9831015629836</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6716,7 +6716,7 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P32" t="n">
-        <v>1655.109002436484</v>
+        <v>1655.109002436483</v>
       </c>
       <c r="Q32" t="n">
         <v>1777.662612870715</v>
@@ -6734,13 +6734,13 @@
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
         <v>1183.2548485873</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>271.6323315266826</v>
+        <v>450.1681844536177</v>
       </c>
       <c r="C33" t="n">
-        <v>271.6323315266826</v>
+        <v>450.1681844536177</v>
       </c>
       <c r="D33" t="n">
-        <v>110.8522152877144</v>
+        <v>289.3880682146495</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201684</v>
+        <v>115.8248643360639</v>
       </c>
       <c r="F33" t="n">
         <v>35.92166172201684</v>
@@ -6780,31 +6780,31 @@
         <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432154</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261399</v>
+        <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N33" t="n">
-        <v>577.9583061004878</v>
+        <v>577.9583061004877</v>
       </c>
       <c r="O33" t="n">
-        <v>709.7015933827747</v>
+        <v>709.7015933827746</v>
       </c>
       <c r="P33" t="n">
-        <v>793.3606943740707</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="Q33" t="n">
-        <v>786.4450312622844</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="R33" t="n">
-        <v>786.4450312622844</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="S33" t="n">
-        <v>786.4450312622844</v>
+        <v>786.4450312622843</v>
       </c>
       <c r="T33" t="n">
         <v>784.9266249210009</v>
@@ -6813,13 +6813,13 @@
         <v>760.9255330009024</v>
       </c>
       <c r="V33" t="n">
-        <v>733.4690236601251</v>
+        <v>517.8458149045365</v>
       </c>
       <c r="W33" t="n">
-        <v>679.6936631460051</v>
+        <v>464.0704543904164</v>
       </c>
       <c r="X33" t="n">
-        <v>675.80887751829</v>
+        <v>460.1856687627014</v>
       </c>
       <c r="Y33" t="n">
         <v>450.1681844536177</v>
@@ -6841,64 +6841,64 @@
         <v>35.92166172201684</v>
       </c>
       <c r="E34" t="n">
-        <v>35.92166172201684</v>
+        <v>52.87661984585739</v>
       </c>
       <c r="F34" t="n">
-        <v>35.92166172201684</v>
+        <v>126.6713133509476</v>
       </c>
       <c r="G34" t="n">
-        <v>35.92166172201684</v>
+        <v>170.9900022928403</v>
       </c>
       <c r="H34" t="n">
-        <v>83.08914163266724</v>
+        <v>218.1574822034907</v>
       </c>
       <c r="I34" t="n">
-        <v>83.08914163266724</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="J34" t="n">
-        <v>83.08914163266724</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="K34" t="n">
-        <v>86.76564459714325</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="L34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="M34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="N34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="O34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="P34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="Q34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R34" t="n">
-        <v>266.2898381224439</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S34" t="n">
-        <v>244.099493717747</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T34" t="n">
-        <v>233.7015767757519</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U34" t="n">
-        <v>157.7525140695577</v>
+        <v>157.7525140695575</v>
       </c>
       <c r="V34" t="n">
-        <v>125.7908590024696</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398207</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X34" t="n">
-        <v>39.6330719706388</v>
+        <v>39.63307197063876</v>
       </c>
       <c r="Y34" t="n">
         <v>35.92166172201684</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.011976583746</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144261</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516584</v>
+        <v>51.58890486516577</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9424160029271</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7962265328097</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="L35" t="n">
-        <v>549.5695647631037</v>
+        <v>291.7157542332209</v>
       </c>
       <c r="M35" t="n">
-        <v>630.4898754862555</v>
+        <v>372.6360649563727</v>
       </c>
       <c r="N35" t="n">
-        <v>705.8771254194937</v>
+        <v>630.4898754862554</v>
       </c>
       <c r="O35" t="n">
-        <v>740.1538090529234</v>
+        <v>664.766559119685</v>
       </c>
       <c r="P35" t="n">
-        <v>740.1538090529234</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.512111304001</v>
+        <v>850.5121113040013</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9393577091843</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912297</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T35" t="n">
         <v>1020.14350728728</v>
@@ -6971,7 +6971,7 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.520338742662</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
         <v>926.0185337114403</v>
@@ -6980,7 +6980,7 @@
         <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07012156655</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.8275917193117</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="C36" t="n">
-        <v>354.8275917193117</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8275917193117</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.828738590275</v>
+        <v>58.82873859027498</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425915</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364413</v>
+        <v>562.8733159364411</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187282</v>
+        <v>694.6166032187281</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100242</v>
+        <v>778.2757042100241</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100242</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100242</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100242</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100242</v>
+        <v>771.3600410982377</v>
       </c>
       <c r="U36" t="n">
-        <v>778.2757042100242</v>
+        <v>531.7357404225506</v>
       </c>
       <c r="V36" t="n">
-        <v>778.2757042100242</v>
+        <v>288.6560223261847</v>
       </c>
       <c r="W36" t="n">
-        <v>778.2757042100242</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="X36" t="n">
-        <v>580.468284783984</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.8275917193117</v>
+        <v>73.82473685802552</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797031</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837463</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248357</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590289</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144267</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589356</v>
+        <v>96.55210643589363</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516584</v>
+        <v>51.58890486516577</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9424160029271</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7962265328097</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="L38" t="n">
-        <v>549.5695647631037</v>
+        <v>291.7157542332209</v>
       </c>
       <c r="M38" t="n">
-        <v>630.4898754862555</v>
+        <v>372.6360649563727</v>
       </c>
       <c r="N38" t="n">
-        <v>705.8771254194937</v>
+        <v>448.0233148896108</v>
       </c>
       <c r="O38" t="n">
-        <v>740.1538090529234</v>
+        <v>482.2999985230405</v>
       </c>
       <c r="P38" t="n">
-        <v>740.1538090529234</v>
+        <v>669.9517276947134</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.512111304001</v>
+        <v>850.5121113040013</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091843</v>
+        <v>926.9393577091845</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912297</v>
+        <v>971.0441935912299</v>
       </c>
       <c r="T38" t="n">
         <v>1020.14350728728</v>
@@ -7208,16 +7208,16 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426624</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
         <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665504</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705.0199822253163</v>
+        <v>597.5803312426156</v>
       </c>
       <c r="C39" t="n">
-        <v>515.60770795828</v>
+        <v>408.1680569755793</v>
       </c>
       <c r="D39" t="n">
-        <v>354.8275917193117</v>
+        <v>247.3879407366111</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2643878407262</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83667155797031</v>
+        <v>73.82473685802552</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.828738590275</v>
+        <v>58.82873859027498</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425915</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N39" t="n">
-        <v>562.8733159364413</v>
+        <v>562.8733159364411</v>
       </c>
       <c r="O39" t="n">
-        <v>694.6166032187282</v>
+        <v>694.6166032187281</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100242</v>
+        <v>778.2757042100241</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="R39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="S39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="T39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="U39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="V39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="W39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="X39" t="n">
-        <v>771.3600410982378</v>
+        <v>776.1161841695507</v>
       </c>
       <c r="Y39" t="n">
-        <v>705.0199822253163</v>
+        <v>776.1161841695507</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633964</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633964</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330161</v>
+        <v>39.27205564330168</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83667155797031</v>
+        <v>20.83667155797032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676708</v>
+        <v>818.5041758676717</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1923754002146</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418005</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173166</v>
+        <v>478.6394038173175</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
         <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9998061668182</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>842.9146689848259</v>
+        <v>842.9146689848271</v>
       </c>
       <c r="N41" t="n">
-        <v>918.3019189180641</v>
+        <v>918.3019189180653</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514938</v>
+        <v>952.5786025514949</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.272233167331</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1326.080383469424</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.755396567411</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S41" t="n">
-        <v>1385.107999142261</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T41" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590204</v>
+        <v>952.9389490590213</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06910159062233</v>
+        <v>523.8421237547681</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06910159062233</v>
+        <v>523.8421237547681</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06910159062233</v>
+        <v>363.0620075157998</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062233</v>
+        <v>189.4988036372142</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062233</v>
+        <v>81.05716689067755</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292701</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752435</v>
+        <v>365.1544780752434</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690933</v>
+        <v>570.1057459690932</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513802</v>
+        <v>701.8490332513801</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426762</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="Q42" t="n">
-        <v>780.1716896323841</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="R42" t="n">
-        <v>780.1716896323841</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S42" t="n">
-        <v>780.1716896323841</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T42" t="n">
-        <v>780.1716896323841</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U42" t="n">
-        <v>540.547388956697</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="V42" t="n">
-        <v>297.467670860331</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="W42" t="n">
-        <v>28.06910159062233</v>
+        <v>523.8421237547681</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06910159062233</v>
+        <v>523.8421237547681</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06910159062233</v>
+        <v>523.8421237547681</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676709</v>
+        <v>818.5041758676718</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002148</v>
+        <v>708.1923754002157</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418005</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6394038173165</v>
+        <v>478.6394038173174</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7985606641687</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G44" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
         <v>190.670379421188</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673109</v>
+        <v>238.0473264929548</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9998061668182</v>
+        <v>284.8206647232488</v>
       </c>
       <c r="M44" t="n">
-        <v>788.92011688997</v>
+        <v>365.7409754464006</v>
       </c>
       <c r="N44" t="n">
-        <v>864.3073668232082</v>
+        <v>679.715072148852</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514938</v>
+        <v>952.5786025514949</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167331</v>
+        <v>1176.272233167332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469424</v>
+        <v>1326.080383469425</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567411</v>
+        <v>1371.755396567412</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142261</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.208918225168</v>
+        <v>1394.208918225169</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.519050860769</v>
+        <v>1313.51905086077</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.654860675235</v>
+        <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590206</v>
+        <v>952.9389490590215</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>752.6250280413803</v>
+        <v>509.5453099450144</v>
       </c>
       <c r="C45" t="n">
-        <v>563.212753774344</v>
+        <v>509.5453099450144</v>
       </c>
       <c r="D45" t="n">
-        <v>402.4326375353758</v>
+        <v>348.7651937060461</v>
       </c>
       <c r="E45" t="n">
-        <v>228.8694336567902</v>
+        <v>175.2019898274606</v>
       </c>
       <c r="F45" t="n">
-        <v>68.44171737403431</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G45" t="n">
-        <v>68.44171737403431</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H45" t="n">
-        <v>68.44171737403431</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292701</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752435</v>
+        <v>365.1544780752434</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690933</v>
+        <v>570.1057459690932</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513802</v>
+        <v>701.8490332513801</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426762</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.5924711308899</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="R45" t="n">
-        <v>778.5924711308899</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="S45" t="n">
-        <v>778.5924711308899</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="T45" t="n">
-        <v>778.5924711308899</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="U45" t="n">
-        <v>778.5924711308899</v>
+        <v>778.5924711308897</v>
       </c>
       <c r="V45" t="n">
-        <v>778.5924711308899</v>
+        <v>535.5127530345238</v>
       </c>
       <c r="W45" t="n">
-        <v>752.6250280413803</v>
+        <v>509.5453099450144</v>
       </c>
       <c r="X45" t="n">
-        <v>752.6250280413803</v>
+        <v>509.5453099450144</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.6250280413803</v>
+        <v>509.5453099450144</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="O46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="P46" t="n">
-        <v>28.06910159062233</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="Q46" t="n">
         <v>130.1759968085603</v>
@@ -7837,19 +7837,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062233</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8775,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7768813100001</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>292.1547529041439</v>
@@ -9021,7 +9021,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841511</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9495,7 +9495,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532781</v>
+        <v>61.46597078626795</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.442510317672</v>
       </c>
       <c r="E11" t="n">
-        <v>193.149262737081</v>
+        <v>4.586885686499301</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154583</v>
+        <v>224.8696003154582</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046798</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494462</v>
+        <v>168.6883080494461</v>
       </c>
       <c r="I11" t="n">
-        <v>49.12766057486272</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718766</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550865</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673096</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331306</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532781</v>
+        <v>7.195214002696417</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176721</v>
+        <v>159.4425103176719</v>
       </c>
       <c r="E14" t="n">
-        <v>4.586885686499329</v>
+        <v>82.83441299427075</v>
       </c>
       <c r="F14" t="n">
-        <v>119.449408497149</v>
+        <v>36.30722326487657</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046798</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494462</v>
+        <v>168.688308049446</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384201</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550873</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012117</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.39354104331306</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.276579504557958e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1355809.516167529</v>
+        <v>1355809.51616753</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44096.59975882298</v>
+        <v>44096.59975882297</v>
       </c>
       <c r="C2" t="n">
-        <v>44096.59975882297</v>
+        <v>44096.59975882299</v>
       </c>
       <c r="D2" t="n">
         <v>44096.59975882298</v>
       </c>
       <c r="E2" t="n">
-        <v>37999.50445102397</v>
+        <v>37999.50445102399</v>
       </c>
       <c r="F2" t="n">
-        <v>37999.50445102397</v>
+        <v>37999.504451024</v>
       </c>
       <c r="G2" t="n">
-        <v>44185.92744292679</v>
+        <v>44185.92744292678</v>
       </c>
       <c r="H2" t="n">
         <v>44185.92744292679</v>
       </c>
       <c r="I2" t="n">
-        <v>44185.92744292675</v>
+        <v>44185.92744292678</v>
       </c>
       <c r="J2" t="n">
-        <v>44185.92744292681</v>
+        <v>44185.9274429268</v>
       </c>
       <c r="K2" t="n">
-        <v>44185.92744292681</v>
+        <v>44185.92744292683</v>
       </c>
       <c r="L2" t="n">
-        <v>44185.9274429268</v>
+        <v>44185.92744292683</v>
       </c>
       <c r="M2" t="n">
-        <v>44185.92744292676</v>
+        <v>44185.92744292678</v>
       </c>
       <c r="N2" t="n">
-        <v>44185.92744292677</v>
+        <v>44185.92744292679</v>
       </c>
       <c r="O2" t="n">
         <v>44185.92744292682</v>
@@ -26375,10 +26375,10 @@
         <v>280312.8421842064</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.95397400462</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145972</v>
+        <v>46874.16014145965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660011</v>
+        <v>72403.4818166003</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>440811.1417349353</v>
       </c>
       <c r="E4" t="n">
-        <v>331148.6906652543</v>
+        <v>331148.6906652544</v>
       </c>
       <c r="F4" t="n">
-        <v>331148.6906652544</v>
+        <v>331148.6906652545</v>
       </c>
       <c r="G4" t="n">
         <v>401611.6670699617</v>
       </c>
       <c r="H4" t="n">
-        <v>401611.6670699617</v>
+        <v>401611.6670699618</v>
       </c>
       <c r="I4" t="n">
         <v>401611.6670699618</v>
       </c>
       <c r="J4" t="n">
-        <v>402517.6175033182</v>
+        <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
         <v>402517.6175033181</v>
@@ -26448,16 +26448,16 @@
         <v>402517.617503318</v>
       </c>
       <c r="M4" t="n">
+        <v>401692.5905255168</v>
+      </c>
+      <c r="N4" t="n">
         <v>401692.5905255167</v>
       </c>
-      <c r="N4" t="n">
-        <v>401692.5905255168</v>
-      </c>
       <c r="O4" t="n">
-        <v>402079.8338982544</v>
+        <v>402079.8338982546</v>
       </c>
       <c r="P4" t="n">
-        <v>402079.8338982544</v>
+        <v>402079.8338982546</v>
       </c>
     </row>
     <row r="5">
@@ -26479,31 +26479,31 @@
         <v>28663.94612301864</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.13884131941</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.13884131941</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131941</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="K5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
         <v>43800.23675152496</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-430342.1419761123</v>
+        <v>-430346.6083603175</v>
       </c>
       <c r="C6" t="n">
-        <v>-430342.1419761124</v>
+        <v>-430346.6083603175</v>
       </c>
       <c r="D6" t="n">
-        <v>-430342.1419761123</v>
+        <v>-430346.6083603175</v>
       </c>
       <c r="E6" t="n">
-        <v>-602125.9745214554</v>
+        <v>-602435.2956710506</v>
       </c>
       <c r="F6" t="n">
-        <v>-321813.1323372491</v>
+        <v>-322122.4534868443</v>
       </c>
       <c r="G6" t="n">
-        <v>-491377.8324423591</v>
+        <v>-491377.832442359</v>
       </c>
       <c r="H6" t="n">
-        <v>-396101.8784683543</v>
+        <v>-396101.8784683544</v>
       </c>
       <c r="I6" t="n">
-        <v>-396101.8784683545</v>
+        <v>-396101.8784683544</v>
       </c>
       <c r="J6" t="n">
         <v>-549430.4700642475</v>
       </c>
       <c r="K6" t="n">
-        <v>-405785.4665399062</v>
+        <v>-405785.4665399061</v>
       </c>
       <c r="L6" t="n">
-        <v>-501061.4205139108</v>
+        <v>-501061.4205139107</v>
       </c>
       <c r="M6" t="n">
         <v>-445295.8368900546</v>
       </c>
       <c r="N6" t="n">
-        <v>-398421.676748595</v>
+        <v>-398421.6767485949</v>
       </c>
       <c r="O6" t="n">
-        <v>-474097.6250234527</v>
+        <v>-474097.625023453</v>
       </c>
       <c r="P6" t="n">
-        <v>-401694.1432068526</v>
+        <v>-401694.1432068527</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26811,25 +26811,25 @@
         <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252105</v>
+        <v>449.0207715252104</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4583944746289</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827791</v>
+        <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827791</v>
+        <v>350.8637698827794</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052683</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682465</v>
+        <v>58.59270017682456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406667</v>
+        <v>63.30917227406687</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815023</v>
+        <v>90.40537540815041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052683</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K11" t="n">
-        <v>6.684449518273148</v>
+        <v>56.97629019285028</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.4136397442804</v>
       </c>
       <c r="O11" t="n">
-        <v>153.3589480640215</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,10 +28184,10 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7337882414754</v>
+        <v>90.09069178977775</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2093038757885</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T12" t="n">
-        <v>26.40782189532166</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7006242014745</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I13" t="n">
         <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K13" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245552</v>
+        <v>126.4002441856643</v>
       </c>
       <c r="M13" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N13" t="n">
-        <v>175.2886195576631</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="O13" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P13" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K14" t="n">
-        <v>6.684449518273148</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>50.29184067457729</v>
+        <v>106.8246894514384</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017744</v>
+        <v>53.21870813085616</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>103.4452349481349</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>17.40227721604856</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U15" t="n">
-        <v>48.66568061834854</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="16">
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G16" t="n">
         <v>168.7006242014745</v>
@@ -28506,52 +28506,52 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245552</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L16" t="n">
-        <v>178.3296493245552</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M16" t="n">
-        <v>178.3296493245552</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N16" t="n">
-        <v>16.49709222984359</v>
+        <v>174.4811554601627</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830502</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="P16" t="n">
-        <v>98.95930240771145</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3527488800973</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273148</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>60.67199704803021</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,22 +28600,22 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017744</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2378280274712</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4245917920612</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9701989459033</v>
+        <v>92.48461571147205</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280576689302</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>147.6326689968825</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28749,25 +28749,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M19" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N19" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R19" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S19" t="n">
         <v>235.4354176286827</v>
@@ -28822,10 +28822,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J20" t="n">
-        <v>265.3154769886094</v>
+        <v>76.75309993802783</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273148</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>57.17570605543379</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.67545097688964</v>
+        <v>245.4097000958767</v>
       </c>
       <c r="R20" t="n">
         <v>297.4245917920612</v>
@@ -28852,7 +28852,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4644104852103</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
         <v>297.4245917920612</v>
@@ -28880,19 +28880,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>125.7337882414754</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>4.873295830498478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>26.40782189532172</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280576689302</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>211.4939215451076</v>
       </c>
     </row>
     <row r="22">
@@ -28986,25 +28986,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N22" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R22" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S22" t="n">
         <v>235.4354176286827</v>
@@ -29056,13 +29056,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>76.7530999380278</v>
+        <v>76.75309993802783</v>
       </c>
       <c r="K23" t="n">
-        <v>30.28409846034286</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017744</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2378280274712</v>
+        <v>245.4097000958772</v>
       </c>
       <c r="R23" t="n">
         <v>297.4245917920612</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7444246896586</v>
@@ -29168,19 +29168,19 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9701989459033</v>
+        <v>78.4502104368209</v>
       </c>
       <c r="U24" t="n">
-        <v>48.66568061834855</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V24" t="n">
-        <v>52.08654386482061</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W24" t="n">
-        <v>159.9235329985823</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.75053738888897</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,25 +29223,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N25" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R25" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S25" t="n">
         <v>235.4354176286827</v>
@@ -29302,7 +29302,7 @@
         <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680318</v>
       </c>
       <c r="M26" t="n">
         <v>213.4669766680328</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7444246896586</v>
+        <v>84.63062930279028</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>88.01960457902049</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
         <v>213.4669766680328</v>
@@ -29430,19 +29430,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>148.6869963233896</v>
       </c>
       <c r="G28" t="n">
         <v>168.7006242014745</v>
@@ -29460,25 +29460,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M28" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P28" t="n">
-        <v>213.4669766680328</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.8928850672793</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S28" t="n">
         <v>213.4669766680328</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>134.3628060801259</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>18.53910953551008</v>
       </c>
       <c r="S30" t="n">
         <v>191.5874518930719</v>
@@ -29645,13 +29645,13 @@
         <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="V30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
         <v>213.4669766680328</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29682,13 +29682,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8230575663656</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8484353357569</v>
+        <v>212.2296470586289</v>
       </c>
       <c r="J31" t="n">
         <v>120.2289512774728</v>
@@ -29697,25 +29697,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>213.4669766680328</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M31" t="n">
-        <v>76.55079692346969</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N31" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P31" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R31" t="n">
-        <v>203.4231839810568</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="S31" t="n">
         <v>213.4669766680328</v>
@@ -29776,7 +29776,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="L32" t="n">
-        <v>213.4669766680331</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
         <v>213.4669766680327</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,10 +29834,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>97.64632380975914</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>79.71926853202172</v>
       </c>
       <c r="G33" t="n">
         <v>148.7444246896586</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="V33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>213.4669766680327</v>
@@ -29894,7 +29894,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
     </row>
     <row r="34">
@@ -29913,46 +29913,46 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>158.8023615393367</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7006242014745</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="H34" t="n">
         <v>213.4669766680327</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8484353357569</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="J34" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K34" t="n">
-        <v>70.72610791392722</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>213.4669766680327</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M34" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q34" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30010,7 +30010,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K35" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,16 +30019,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017744</v>
+        <v>20.28119669535774</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.1484835537357</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R35" t="n">
         <v>272.0596768448573</v>
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668481</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
@@ -30119,19 +30119,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>54.02161096353399</v>
       </c>
       <c r="X36" t="n">
-        <v>21.48356920769086</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>213.1723763804928</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30165,31 +30165,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>155.7844069929973</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K37" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M37" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30247,7 +30247,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="K38" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017744</v>
+        <v>204.5908538636855</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.1484835537357</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="R38" t="n">
         <v>272.0596768448573</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7444246896586</v>
@@ -30323,7 +30323,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>4.708581640599879</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.7076278498333</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30405,28 +30405,28 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5679242713952</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M40" t="n">
-        <v>25.1932384637467</v>
+        <v>60.7486941792714</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S40" t="n">
         <v>235.4354176286827</v>
@@ -30490,7 +30490,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>54.53995161096555</v>
+        <v>54.53995161096708</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30542,10 +30542,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30557,10 +30557,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705463</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.563426316479283</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30593,13 +30593,13 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>14.50173967465113</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30639,31 +30639,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3672292753899</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M43" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S43" t="n">
         <v>235.4354176286827</v>
@@ -30721,19 +30721,19 @@
         <v>240.9968149183972</v>
       </c>
       <c r="K44" t="n">
+        <v>54.5399516109669</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>54.53995161096556</v>
       </c>
       <c r="P44" t="n">
         <v>240.9968149183972</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>13.16187976545848</v>
       </c>
       <c r="G45" t="n">
         <v>148.7444246896586</v>
@@ -30794,10 +30794,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I45" t="n">
-        <v>67.38833075349343</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>240.9968149183972</v>
@@ -30876,31 +30876,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2289512774728</v>
+        <v>223.3672292753899</v>
       </c>
       <c r="K46" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M46" t="n">
-        <v>25.1932384637467</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984359</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.3426427414221</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4231839810568</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S46" t="n">
         <v>235.4354176286827</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I11" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R11" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H12" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J12" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L12" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R12" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M13" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R13" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S13" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R14" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H15" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J15" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L15" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R15" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H16" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K16" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M16" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O16" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S16" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I17" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R17" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H18" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J18" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L18" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R18" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H19" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K19" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M19" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O19" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R19" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S19" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I20" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R20" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H21" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J21" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L21" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R21" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H22" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M22" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O22" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S22" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I23" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R23" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H24" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L24" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R24" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H25" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M25" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O25" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S25" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I26" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R26" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H27" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J27" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L27" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R27" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H28" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M28" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O28" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S28" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I29" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R29" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H30" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L30" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R30" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H31" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M31" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O31" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S31" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I32" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R32" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H33" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J33" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L33" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R33" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H34" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K34" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M34" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O34" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R34" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S34" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I35" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J36" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L36" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R36" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H37" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S37" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I38" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J39" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L39" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R39" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H40" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K40" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S40" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I41" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J42" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L42" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R42" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H43" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K43" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S43" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069148</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I44" t="n">
-        <v>15.6929936320891</v>
+        <v>15.69299363208909</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690876</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517638</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.9573767223205</v>
+        <v>43.95737672232048</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380563</v>
+        <v>25.56967800380562</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777771</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055318</v>
+        <v>0.03256441192055316</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2177937054332754</v>
+        <v>0.2177937054332753</v>
       </c>
       <c r="H45" t="n">
-        <v>2.103428681421371</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J45" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972323</v>
       </c>
       <c r="L45" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997497</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225414</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R45" t="n">
-        <v>13.522314447866</v>
+        <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868074</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1825909264705199</v>
+        <v>0.1825909264705198</v>
       </c>
       <c r="H46" t="n">
-        <v>1.62339932807426</v>
+        <v>1.623399328074259</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084767</v>
+        <v>21.21374582084766</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362621</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301067</v>
+        <v>28.62195768301066</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252967</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785131</v>
+        <v>25.8083974978513</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.28950021563599</v>
+        <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.20995202111992</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S46" t="n">
-        <v>3.18206187312715</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.5765493865274</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>50.2918406745771</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N11" t="n">
-        <v>76.14873730630119</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O11" t="n">
-        <v>187.9818608250615</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443777</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766561</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.557317657069</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N12" t="n">
         <v>188.5623770505816</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,43 +35541,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7127286595871851</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.87246835258293</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33.14699907384457</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.65350811233029</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.40276710610863</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.629025123080831</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818966</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.1006980470825</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>146.200241873998</v>
+        <v>94.27083673510707</v>
       </c>
       <c r="M13" t="n">
-        <v>153.1364108608085</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>158.7915273278195</v>
+        <v>161.8325570947117</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.1252845810502</v>
+        <v>51.12528458105028</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>101.5765493865275</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.6451998062822</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M14" t="n">
-        <v>132.0295282737205</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O14" t="n">
-        <v>188.5623770505816</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>38.17505545067868</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766556</v>
+        <v>88.65419834766567</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.5041424154506</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.40276710610868</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708243</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>146.200241873998</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>153.1364108608085</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>157.9840632303191</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162503</v>
       </c>
       <c r="P16" t="n">
-        <v>40.49893309310268</v>
+        <v>119.8692800099466</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105034</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J17" t="n">
-        <v>23.59964894206949</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221619</v>
+        <v>107.9177932402464</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276104004</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403182</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.91525422199724</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685088</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.27407718077492</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515637</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366396</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P20" t="n">
-        <v>42.13205337525635</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>155.734249118987</v>
       </c>
       <c r="R20" t="n">
         <v>102.5641537403182</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199724</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
         <v>47.27407718077492</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.5041424154506</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,37 +36352,37 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>23.59964894206972</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.5623770505816</v>
+        <v>155.7342491189875</v>
       </c>
       <c r="R23" t="n">
         <v>102.5641537403182</v>
       </c>
       <c r="S23" t="n">
-        <v>69.91525422199724</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T23" t="n">
         <v>74.96018130685088</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36452,7 +36452,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>136.713876730005</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7825271497597</v>
+        <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.712772860249</v>
+        <v>260.7127728602479</v>
       </c>
       <c r="M26" t="n">
         <v>295.204664267176</v>
@@ -36607,7 +36607,7 @@
         <v>289.615713974334</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290729</v>
+        <v>248.0898894290728</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878554</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911432</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628988</v>
+        <v>18.60653861628989</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,19 +36726,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.85005600306474</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.00979569606048</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.28432641732212</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.79083545580784</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.760114104942934</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.006607353424</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.68852032377431</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
@@ -36841,7 +36841,7 @@
         <v>295.204664267176</v>
       </c>
       <c r="N29" t="n">
-        <v>289.615713974334</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
         <v>248.0898894290728</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628985</v>
+        <v>18.60653861628984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.85005600306468</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.00979569606042</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.76635246655832</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.64391910166715</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.38121172287204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3375692174755</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>51.35755845972299</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.04379268697592</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>206.7825271497595</v>
       </c>
       <c r="L32" t="n">
-        <v>260.7127728602492</v>
+        <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
         <v>295.2046642671759</v>
@@ -37090,7 +37090,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628977</v>
+        <v>18.60653861628978</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,28 +37209,28 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>17.12622032711167</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>74.54009444958606</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.76635246655827</v>
       </c>
       <c r="H34" t="n">
-        <v>47.64391910166707</v>
+        <v>47.64391910166709</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.61854133227584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.713639358056581</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.3375692174754</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646013</v>
+        <v>31.06286192646006</v>
       </c>
       <c r="J35" t="n">
         <v>195.3065769068295</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630119</v>
+        <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>5.237544015180259</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.4730325768461</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311442</v>
+        <v>77.19923879311435</v>
       </c>
       <c r="S35" t="n">
-        <v>44.55033927479342</v>
+        <v>44.55033927479335</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964706</v>
+        <v>49.59526635964701</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357109</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646013</v>
+        <v>31.06286192646006</v>
       </c>
       <c r="J38" t="n">
         <v>195.3065769068295</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4583944746289</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221619</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>189.5472011835081</v>
       </c>
       <c r="Q38" t="n">
-        <v>111.4730325768461</v>
+        <v>182.3842258679676</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311442</v>
+        <v>77.19923879311435</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479342</v>
+        <v>44.55033927479335</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964706</v>
+        <v>49.59526635964701</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357109</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>35.55545571552457</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K41" t="n">
-        <v>234.3123654001241</v>
+        <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>136.2776392101088</v>
+        <v>136.2776392101103</v>
       </c>
       <c r="N41" t="n">
-        <v>76.14873730630119</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382198</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3213639415076</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R41" t="n">
-        <v>46.13637686665429</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S41" t="n">
         <v>13.48747734833328</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>103.1382779979172</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>164.2437149803694</v>
       </c>
       <c r="K44" t="n">
-        <v>234.3123654001241</v>
+        <v>47.85550209269372</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2426111106134</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N44" t="n">
-        <v>76.14873730630119</v>
+        <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>89.1628643720056</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>225.9531622382197</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415076</v>
+        <v>151.3213639415075</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665429</v>
+        <v>46.13637686665427</v>
       </c>
       <c r="S44" t="n">
         <v>13.48747734833328</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.1382779979172</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
